--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa\Documents\UiPath\REFramework_Mails\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83697390-65DD-4EB7-B396-7EE47C9CEEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="27780" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,23 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -451,13 +463,37 @@
   </si>
   <si>
     <t>xlsm,xls,xlsx,xlsb</t>
+  </si>
+  <si>
+    <t>Bank Details</t>
+  </si>
+  <si>
+    <t>Tracker Sheet name</t>
+  </si>
+  <si>
+    <t>Cheque Tracker</t>
+  </si>
+  <si>
+    <t>Advance Tracker Reconciliation</t>
+  </si>
+  <si>
+    <t>FoodQuest Reconciliation</t>
+  </si>
+  <si>
+    <t>FoodQuest Backup Reconciliation</t>
+  </si>
+  <si>
+    <t>success and exception mail both sent to same person</t>
+  </si>
+  <si>
+    <t>mohammed.imrankhan@teamhgs.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -484,6 +520,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -508,16 +551,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -790,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1885,11 +1931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2185,7 +2231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -2193,12 +2239,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2206,22 +2252,31 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
@@ -2229,7 +2284,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>125</v>
       </c>
@@ -2237,17 +2292,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
@@ -2255,19 +2310,19 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>71</v>
@@ -2527,11 +2582,34 @@
     </row>
     <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3453,12 +3531,15 @@
     <row r="1010" ht="14.25" customHeight="1"/>
     <row r="1011" ht="14.25" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{B6A8D228-09AE-404E-B49A-9F02D46A086B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$4</xm:f>
           </x14:formula1>
@@ -3471,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3502,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa\Documents\UiPath\REFramework_Mails\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83697390-65DD-4EB7-B396-7EE47C9CEEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E5A1A-6323-4043-B397-65314CBDB194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -468,25 +467,49 @@
     <t>Bank Details</t>
   </si>
   <si>
-    <t>Tracker Sheet name</t>
-  </si>
-  <si>
     <t>Cheque Tracker</t>
   </si>
   <si>
-    <t>Advance Tracker Reconciliation</t>
-  </si>
-  <si>
-    <t>FoodQuest Reconciliation</t>
-  </si>
-  <si>
-    <t>FoodQuest Backup Reconciliation</t>
-  </si>
-  <si>
     <t>success and exception mail both sent to same person</t>
   </si>
   <si>
     <t>mohammed.imrankhan@teamhgs.com</t>
+  </si>
+  <si>
+    <t>VBA code path</t>
+  </si>
+  <si>
+    <t>SheetTrimmerVBA</t>
+  </si>
+  <si>
+    <t>FormatingVBA</t>
+  </si>
+  <si>
+    <t>AdvanceTrackerReconciliation</t>
+  </si>
+  <si>
+    <t>FoodQuestReconciliation</t>
+  </si>
+  <si>
+    <t>FoodQuestBackupReconciliation</t>
+  </si>
+  <si>
+    <t>TrackerSheetname</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\Emirates NBD Tracker Reconciliation.xlsm</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\RAKBankTracker.xlsm</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\ADIB Bank tracker.xlsm</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\UiPath\REFramework_Mails\ReconFormatting_VBA Code.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\UiPath\REFramework_Mails\vba_SheetTrim.txt</t>
   </si>
 </sst>
 </file>
@@ -1934,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2262,10 +2285,10 @@
         <v>69</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -2273,7 +2296,7 @@
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -2537,7 +2560,7 @@
         <v>123</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
@@ -2589,48 +2612,75 @@
     </row>
     <row r="88" spans="1:2" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" customHeight="1">
       <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
         <v>144</v>
-      </c>
-      <c r="B91" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A96" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="99" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="100" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="102" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
